--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Emmanuel_Woodward/Thomas_Emmanuel_Woodward.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Emmanuel_Woodward/Thomas_Emmanuel_Woodward.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Emmanuel Woodward (1918-1985) est un entomologiste néozélandais, spécialiste des hétéroptères (hétéroptériste).  
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas E. Woodward est né à Auckland (Nouvelle-Zélande) en 1918, et mort à Brisbane (Queensland, Australie) en 1985. Sa famille était des émigrants du Yorkshire, férus de livres. Il a commencé à collecter les insectes à son adolescence. Il a entamé des études d'agronomie, avec d'excellents résultats. Pendant la deuxième guerre mondiale, il est incorporé dans l'armée néozélandaise au contrôle de la malaria. Il est basé en Nouvelle-Calédonie, mais visite de nombreuses îles, où il collecte des hémiptères. Il est envoyé ensuite en Italie et en Égypte[1]. 
-Il passe son doctorat à l'Imperial College de Londres, sur le comportement reproductif des Hemiptères, sous la direction de Owain Richards (d) (1901-1984). Il travaille sur une courte période en Nouvelle-Zélande (1948-1951), avant de devenir professeur au Département d'Entomologie de l'Université du Queensland à Brisbane dès 1951. Il prend sa retraite en 1983. Il écrit et publie également de la poésie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas E. Woodward est né à Auckland (Nouvelle-Zélande) en 1918, et mort à Brisbane (Queensland, Australie) en 1985. Sa famille était des émigrants du Yorkshire, férus de livres. Il a commencé à collecter les insectes à son adolescence. Il a entamé des études d'agronomie, avec d'excellents résultats. Pendant la deuxième guerre mondiale, il est incorporé dans l'armée néozélandaise au contrôle de la malaria. Il est basé en Nouvelle-Calédonie, mais visite de nombreuses îles, où il collecte des hémiptères. Il est envoyé ensuite en Italie et en Égypte. 
+Il passe son doctorat à l'Imperial College de Londres, sur le comportement reproductif des Hemiptères, sous la direction de Owain Richards (d) (1901-1984). Il travaille sur une courte période en Nouvelle-Zélande (1948-1951), avant de devenir professeur au Département d'Entomologie de l'Université du Queensland à Brisbane dès 1951. Il prend sa retraite en 1983. Il écrit et publie également de la poésie,.
 </t>
         </is>
       </c>
@@ -543,14 +557,51 @@
           <t>Hétéroptériste et hémiptériste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a particulièrement étudié les Lygaeoidea d'Australie et de Nouvelle-Zélande, mais également d'autres familles (Hydrometridae, Enicocephalidae, Saldidae, Miridae, Cydnidae, Pentatomidae, Coreidae), en effectuant beaucoup de recherches de terrain. Il décrit notamment, en 1968, la famille des Henicocoridae pour l'espèce unique Henicocoris monteithi, et, en 1982, la tribu des Lilliputocorini avec l'entomologiste américain James Alex Slater (1920-2008).   
 Il publie également sur les Meenoplidae et sur les Dictyopharidae (Auchenorrhyncha, Fulguroidea), des Hémiptères non hétéroptères.    
-Il publie en plusieurs partie The Heteroptera of New-Zeland (« Les Hétéroptères de Nouvelle-Zélande »), entre 1953 et 1961[3], et participe comme auteur principal au chapitre des Hémiptères de la première édition de Insects of Australia en 1970[1].  
-Il a été éditeur des journaux de la Royal Society of Queensland et de la Entomological Society of Queensland, ayant présidé cette dernière en 1955[1]. 
-Taxons décrits
-Parmi les taxons décrits par Thomas E. Woodward, on peut mentionner :
+Il publie en plusieurs partie The Heteroptera of New-Zeland (« Les Hétéroptères de Nouvelle-Zélande »), entre 1953 et 1961, et participe comme auteur principal au chapitre des Hémiptères de la première édition de Insects of Australia en 1970.  
+Il a été éditeur des journaux de la Royal Society of Queensland et de la Entomological Society of Queensland, ayant présidé cette dernière en 1955. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thomas_Emmanuel_Woodward</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Emmanuel_Woodward</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hétéroptériste et hémiptériste</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons décrits</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les taxons décrits par Thomas E. Woodward, on peut mentionner :
 genre Australotarma Woodward, 1978  (Rhyparochromidae, Targaremini)
 genre Austroxestus Woodward, 1962 (Rhyparochromidae, Lethaeini)
 genre Exomyocara Slater &amp; Woodward, 1974 (Rhyparochromidae, Lethaeini)
@@ -602,33 +653,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Thomas_Emmanuel_Woodward</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thomas_Emmanuel_Woodward</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Taxons nommés en son hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plusieurs genres et espèces ont été nommées en son hommage[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Plusieurs genres et espèces ont été nommées en son hommage :
 genre Woodwardhygia Brailovsky, 1993 (Coreidae)
 genre Woodwardiana Malipatil, 1977 (Rhyparochromidae, Targaremini)
 genre Woodwardiastes Slater, 1985 (Lygaeidae)
